--- a/data/trans_camb/P14B23-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,62</t>
+          <t>-0,18; 1,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,11</t>
+          <t>0,43; 5,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,02</t>
+          <t>0,47; 4,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,42</t>
+          <t>1,21; 7,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,35</t>
+          <t>0,23; 2,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,96</t>
+          <t>1,18; 4,9</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,64; —</t>
+          <t>-30,85; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,86; —</t>
+          <t>37,24; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 2814,19</t>
+          <t>-4,75; 1816,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>135,54; 3976,52</t>
+          <t>122,07; 4185,95</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,35</t>
+          <t>-1,2; 0,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,48</t>
+          <t>-0,79; 1,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,2</t>
+          <t>-3,46; -0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,97</t>
+          <t>-1,49; 3,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; -0,14</t>
+          <t>-1,83; -0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,24</t>
+          <t>-0,38; 2,38</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,27; 615,35</t>
+          <t>-94,17; 458,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-88,45; 9,05</t>
+          <t>-86,65; -3,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 196,5</t>
+          <t>-40,38; 182,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,22; -1,45</t>
+          <t>-82,62; -5,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 188,46</t>
+          <t>-21,01; 189,2</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,16</t>
+          <t>-3,83; -0,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,36</t>
+          <t>-1,65; 3,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; -0,54</t>
+          <t>-5,24; -0,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,13</t>
+          <t>-4,52; 0,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; -0,77</t>
+          <t>-4,13; -0,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,09</t>
+          <t>-2,53; 0,92</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,72; 0,53</t>
+          <t>-79,81; -3,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 126,54</t>
+          <t>-37,06; 124,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,23; -9,14</t>
+          <t>-64,03; -11,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,08; 2,77</t>
+          <t>-57,81; 6,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,88; -17,55</t>
+          <t>-65,72; -20,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 26,47</t>
+          <t>-40,83; 22,44</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,36</t>
+          <t>-1,37; 2,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,68</t>
+          <t>-1,75; 3,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,03</t>
+          <t>-3,07; 2,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,59</t>
+          <t>-2,59; 2,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,03</t>
+          <t>-1,55; 2,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,6</t>
+          <t>-2,1; 2,46</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 145,55</t>
+          <t>-41,71; 171,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,76; 201,39</t>
+          <t>-42,48; 191,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 53,25</t>
+          <t>-34,61; 45,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 42,25</t>
+          <t>-27,54; 47,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 48,54</t>
+          <t>-25,08; 51,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 60,09</t>
+          <t>-35,82; 55,65</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,17</t>
+          <t>-3,46; 1,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,92</t>
+          <t>-1,51; 3,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 2,38</t>
+          <t>-6,26; 2,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,07</t>
+          <t>-5,77; 2,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,27</t>
+          <t>-3,74; 1,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,08</t>
+          <t>-2,69; 1,99</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 75,81</t>
+          <t>-57,68; 71,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 136,92</t>
+          <t>-26,41; 136,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 21,46</t>
+          <t>-40,13; 24,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 19,74</t>
+          <t>-35,02; 21,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 18,1</t>
+          <t>-37,28; 15,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 27,24</t>
+          <t>-26,22; 26,97</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -0,39</t>
+          <t>-5,49; -0,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,53</t>
+          <t>-3,9; 1,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,55</t>
+          <t>-8,38; 1,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,2; -3,18</t>
+          <t>-15,12; -2,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 0,22</t>
+          <t>-6,17; -0,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,26; -1,51</t>
+          <t>-7,99; -1,57</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-93,54; 1,12</t>
+          <t>-95,04; -2,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-68,42; 77,31</t>
+          <t>-65,72; 101,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-47,05; 15,13</t>
+          <t>-48,33; 11,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-86,33; -23,72</t>
+          <t>-83,67; -22,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 3,51</t>
+          <t>-54,59; 0,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-72,86; -19,04</t>
+          <t>-70,67; -19,85</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,3</t>
+          <t>-3,53; 2,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 4,42</t>
+          <t>-3,06; 4,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 2,35</t>
+          <t>-8,62; 1,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,73; -0,21</t>
+          <t>-9,05; -0,21</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 1,25</t>
+          <t>-5,89; 1,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,93</t>
+          <t>-5,35; 0,64</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 176,61</t>
+          <t>-59,74; 161,53</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-47,0; 223,91</t>
+          <t>-46,41; 215,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 19,43</t>
+          <t>-47,66; 12,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-47,36; 0,08</t>
+          <t>-47,59; -1,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 14,31</t>
+          <t>-46,08; 13,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 11,48</t>
+          <t>-41,68; 9,11</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,18</t>
+          <t>-1,27; 0,25</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,07</t>
+          <t>0,1; 2,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -0,02</t>
+          <t>-2,56; -0,05</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,45</t>
+          <t>-2,49; 0,45</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,6; -0,2</t>
+          <t>-1,64; -0,15</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,97</t>
+          <t>-0,78; 1,0</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 9,1</t>
+          <t>-42,96; 13,37</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>3,76; 99,01</t>
+          <t>3,49; 99,1</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -0,18</t>
+          <t>-29,62; -0,58</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 6,02</t>
+          <t>-28,88; 6,4</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-28,7; -4,15</t>
+          <t>-28,95; -3,12</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 19,28</t>
+          <t>-13,6; 20,39</t>
         </is>
       </c>
     </row>
